--- a/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20220609/20220609_Plate_1.xlsx
+++ b/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20220609/20220609_Plate_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u_lobnow/Documents/Github/coding_universe/ALL/Plate_1_20220609/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAYLOR-LAB/Synthetic Myddosome Paper/6_Manuscript/Source files/Figure 1/1C/Plate_1_20220609/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36311D-09C6-C04E-930A-831268CB04B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47C31A1-045E-D54C-9405-35EE45C3C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-30020" windowWidth="34800" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="880" windowWidth="29080" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="DILUTIONS" sheetId="5" r:id="rId5"/>
     <sheet name="STIM_TIME" sheetId="6" r:id="rId6"/>
     <sheet name="STIM_CONCENTRATION" sheetId="7" r:id="rId7"/>
+    <sheet name="PATHWAY" sheetId="8" r:id="rId8"/>
+    <sheet name="STIMULANT" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="12">
   <si>
     <t>WT_EL4</t>
   </si>
@@ -56,6 +58,12 @@
   </si>
   <si>
     <t>CALIBRATION</t>
+  </si>
+  <si>
+    <t>IL-1R</t>
+  </si>
+  <si>
+    <t>IL-1</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1649,9 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2281,7 +2291,9 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2592,4 +2604,642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A418231D-0167-0F4F-B74B-DA912FCE8390}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9896-E997-B649-A930-0B5E3FFB7528}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>